--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit2-Robo2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H2">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I2">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J2">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N2">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O2">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P2">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q2">
-        <v>0.2724905403508889</v>
+        <v>0.03574614467888888</v>
       </c>
       <c r="R2">
-        <v>2.452414863158</v>
+        <v>0.32171530211</v>
       </c>
       <c r="S2">
-        <v>0.03412240178955434</v>
+        <v>0.007122785070636473</v>
       </c>
       <c r="T2">
-        <v>0.03412240178955434</v>
+        <v>0.007122785070636472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H3">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I3">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J3">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.03365</v>
       </c>
       <c r="O3">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P3">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q3">
-        <v>0.001846087605555556</v>
+        <v>0.0003077479444444444</v>
       </c>
       <c r="R3">
-        <v>0.01661478845</v>
+        <v>0.0027697315</v>
       </c>
       <c r="S3">
-        <v>0.0002311747884325316</v>
+        <v>6.132192671123288E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002311747884325316</v>
+        <v>6.132192671123288E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H4">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I4">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J4">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N4">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O4">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P4">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q4">
-        <v>0.004031932136555555</v>
+        <v>0.0009142720433333333</v>
       </c>
       <c r="R4">
-        <v>0.036287389229</v>
+        <v>0.00822844839</v>
       </c>
       <c r="S4">
-        <v>0.0005048953559070444</v>
+        <v>0.0001821780591796505</v>
       </c>
       <c r="T4">
-        <v>0.0005048953559070445</v>
+        <v>0.0001821780591796505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H5">
         <v>10.104987</v>
       </c>
       <c r="I5">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J5">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N5">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O5">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P5">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q5">
-        <v>5.576702051164668</v>
+        <v>4.388462243716333</v>
       </c>
       <c r="R5">
-        <v>50.19031846048201</v>
+        <v>39.496160193447</v>
       </c>
       <c r="S5">
-        <v>0.6983378865388631</v>
+        <v>0.8744460034330658</v>
       </c>
       <c r="T5">
-        <v>0.6983378865388632</v>
+        <v>0.8744460034330657</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H6">
         <v>10.104987</v>
       </c>
       <c r="I6">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J6">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.03365</v>
       </c>
       <c r="O6">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P6">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q6">
-        <v>0.03778142361666667</v>
+        <v>0.03778142361666666</v>
       </c>
       <c r="R6">
-        <v>0.3400328125500001</v>
+        <v>0.34003281255</v>
       </c>
       <c r="S6">
-        <v>0.004731147419536656</v>
+        <v>0.007528335223325974</v>
       </c>
       <c r="T6">
-        <v>0.004731147419536656</v>
+        <v>0.007528335223325974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H7">
         <v>10.104987</v>
       </c>
       <c r="I7">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J7">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N7">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O7">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P7">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q7">
-        <v>0.08251620106566668</v>
+        <v>0.112242827267</v>
       </c>
       <c r="R7">
-        <v>0.7426458095910001</v>
+        <v>1.010185445403</v>
       </c>
       <c r="S7">
-        <v>0.01033302280249651</v>
+        <v>0.02236553176643906</v>
       </c>
       <c r="T7">
-        <v>0.01033302280249651</v>
+        <v>0.02236553176643906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H8">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I8">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J8">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N8">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O8">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P8">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q8">
-        <v>1.967860917532223</v>
+        <v>0.4284608206538889</v>
       </c>
       <c r="R8">
-        <v>17.71074825779</v>
+        <v>3.856147385885</v>
       </c>
       <c r="S8">
-        <v>0.2464237503714007</v>
+        <v>0.08537520239234461</v>
       </c>
       <c r="T8">
-        <v>0.2464237503714007</v>
+        <v>0.0853752023923446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H9">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I9">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J9">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.03365</v>
       </c>
       <c r="O9">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P9">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q9">
-        <v>0.01333199913888889</v>
+        <v>0.003688731694444444</v>
       </c>
       <c r="R9">
-        <v>0.11998799225</v>
+        <v>0.03319858525</v>
       </c>
       <c r="S9">
-        <v>0.001669488528626917</v>
+        <v>0.0007350175320665981</v>
       </c>
       <c r="T9">
-        <v>0.001669488528626917</v>
+        <v>0.0007350175320665981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H10">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I10">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J10">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N10">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O10">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P10">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q10">
-        <v>0.02911764079388889</v>
+        <v>0.01095865731833333</v>
       </c>
       <c r="R10">
-        <v>0.262058767145</v>
+        <v>0.098627915865</v>
       </c>
       <c r="S10">
-        <v>0.003646232405182109</v>
+        <v>0.00218362459623078</v>
       </c>
       <c r="T10">
-        <v>0.00364623240518211</v>
+        <v>0.00218362459623078</v>
       </c>
     </row>
   </sheetData>
